--- a/data/jk_ckshd_required_test.xlsx
+++ b/data/jk_ckshd_required_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EEDD02-1A34-0E46-8C5D-8B8DC10A9789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE928D8-1578-074F-A539-C168CC900FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_none" sheetId="2" r:id="rId1"/>
@@ -4811,6 +4811,2217 @@
         <family val="1"/>
       </rPr>
       <t>imageInfo.consultationRoomPhotos</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardNo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardAccountType</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankPhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicTotalSettleCount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/jkjr/shd/project/apply</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTime</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTerm</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applicationPeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productGroup</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applySource</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.financeChannel</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanTerm</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.cycleInterval</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.assetInterestRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.assetInterestRatePeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.userInterestRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.userInterestRatePeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.repayMethod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.discountAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.discountRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.accountProp</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCardNo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCardAccountType</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankPhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.corporateAccountName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.unifiedSocialCreditCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.openAccountProvince</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.openAccountCity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.openAccountBankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.cardNum</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.custName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.phone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.salesContractImage</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.merchantDiscountRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.supplierName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.supplierUnifiedSocialCreditCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.productInfoList</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.deliveryAddressBorough</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.deliveryAddressCity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.deliveryAddressProvince</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.deliveryDetailAddress</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.consigneeName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.consigneePhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicUnifiedSocialCreditCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonIdcard</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonPhone</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4843,7 +7054,7 @@
 		"fourVerifyResult": "Y",
 		"liveAddressProvince": "110100",
 		"liveAddressCity": "110100",
-		"liveAddressBorough": "110500",
+		"liveAddressBorough": "110105",
 		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"personalEmail": "zhangsan@test.com",
 		"cardValidDate": "2029-12-10-9999-09-09",
@@ -4890,7 +7101,7 @@
 	"entityInfo": {
 		"manageAddressProvince": "110100",
 		"manageAddressCity": "110100",
-		"manageAddressBorough": "110500",
+		"manageAddressBorough": "110105",
 		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"isChangeForLegalPerson": 1,
 		"clinicName": "诊所名称",
@@ -4904,7 +7115,7 @@
 		"isAddressConsistent": "Y",
 		"registerAddressProvince": "110100",
 		"registerAddressCity": "110100",
-		"registerAddressBorough": "110500",
+		"registerAddressBorough": "110105",
 		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"cityGrading": 1,
 		"businessLicenseValidDate": "2029-12-10-9999-09-09",
@@ -4974,994 +7185,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardNo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardAccountType</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankPhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicTotalSettleCount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/jkjr/shd/project/apply</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyTime</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyTerm</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applicationPeriod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.productCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.productGroup</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applySource</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.financeChannel</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanTerm</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.cycleInterval</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.assetInterestRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.assetInterestRatePeriod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.userInterestRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.userInterestRatePeriod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.repayMethod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"serviceSn": "1234567890000",
 	"channel": "jkjr",
@@ -6022,7 +7245,7 @@
 			"productQuantity": 10,
 			"productUnitPrice": 100
 		}],
-		"deliveryAddressBorough": "110500",
+		"deliveryAddressBorough": "110105",
 		"deliveryAddressCity": "110100",
 		"deliveryAddressProvince": "110100",
 		"deliveryDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
@@ -6035,1229 +7258,6 @@
 		"legalPersonPhone": "13800138002"
 	}
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.accountProp</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCardNo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCardAccountType</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankPhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.corporateAccountName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.unifiedSocialCreditCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountProvince</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountCity</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountBankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.cardNum</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.custName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.phone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.salesContractImage</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.merchantDiscountRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.supplierName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.supplierUnifiedSocialCreditCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.productInfoList</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.deliveryAddressBorough</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.deliveryAddressCity</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.deliveryAddressProvince</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.deliveryDetailAddress</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.consigneeName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.consigneePhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicUnifiedSocialCreditCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonIdcard</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonPhone</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8848,8 +8848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8896,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -9453,7 +9453,7 @@
     </row>
     <row r="49" spans="1:6" ht="20">
       <c r="A49" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
@@ -9465,7 +9465,7 @@
     </row>
     <row r="50" spans="1:6" ht="20">
       <c r="A50" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -9477,7 +9477,7 @@
     </row>
     <row r="51" spans="1:6" ht="20">
       <c r="A51" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -9489,7 +9489,7 @@
     </row>
     <row r="52" spans="1:6" ht="20">
       <c r="A52" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -9501,7 +9501,7 @@
     </row>
     <row r="53" spans="1:6" ht="20">
       <c r="A53" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -10365,7 +10365,7 @@
     </row>
     <row r="125" spans="1:6" ht="20">
       <c r="A125" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
@@ -12177,8 +12177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12187,7 +12187,7 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14">
@@ -12212,25 +12212,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -12239,7 +12239,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -12248,7 +12248,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -12257,7 +12257,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -12266,7 +12266,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -12275,7 +12275,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -12284,7 +12284,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -12293,7 +12293,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -12302,7 +12302,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="3">
@@ -12311,7 +12311,7 @@
     </row>
     <row r="12" spans="1:6" ht="20">
       <c r="A12" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -12320,7 +12320,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -12329,7 +12329,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -12338,7 +12338,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -12347,7 +12347,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -12356,7 +12356,7 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="3">
@@ -12365,7 +12365,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -12374,7 +12374,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -12383,7 +12383,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -12392,7 +12392,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -12401,7 +12401,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -12410,7 +12410,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -12419,7 +12419,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -12428,7 +12428,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -12437,7 +12437,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -12446,7 +12446,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -12455,7 +12455,7 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -12464,7 +12464,7 @@
     </row>
     <row r="29" spans="1:3" ht="20">
       <c r="A29" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -12473,7 +12473,7 @@
     </row>
     <row r="30" spans="1:3" ht="20">
       <c r="A30" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -12482,7 +12482,7 @@
     </row>
     <row r="31" spans="1:3" ht="20">
       <c r="A31" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -12491,7 +12491,7 @@
     </row>
     <row r="32" spans="1:3" ht="20">
       <c r="A32" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -12500,7 +12500,7 @@
     </row>
     <row r="33" spans="1:3" ht="20">
       <c r="A33" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -12509,7 +12509,7 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="3">
@@ -12518,7 +12518,7 @@
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="3">
@@ -12527,7 +12527,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -12536,7 +12536,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -12545,7 +12545,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -12554,7 +12554,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -12563,7 +12563,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -12572,7 +12572,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -12581,7 +12581,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -12590,7 +12590,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -12599,7 +12599,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -12608,7 +12608,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -12617,7 +12617,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -12626,7 +12626,7 @@
     </row>
     <row r="47" spans="1:3" ht="20">
       <c r="A47" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -12635,7 +12635,7 @@
     </row>
     <row r="48" spans="1:3" ht="20">
       <c r="A48" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -12644,7 +12644,7 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25">

--- a/data/jk_ckshd_required_test.xlsx
+++ b/data/jk_ckshd_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE928D8-1578-074F-A539-C168CC900FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226ACD45-B170-9D46-8F38-EB70664F0BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4851,211 +4851,6 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>bindingCardInfo.bankCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardNo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardAccountType</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankPhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>entityInfo.clinicTotalSettleCount</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -7023,30 +6818,113 @@
       </rPr>
       <t>entityInfo.legalPersonPhone</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"serviceSn": "1234567890000",
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"transactionId": "9892188648115347405",
+	"sourceUserId": "36458",
+	"sourceProjectId": "378457",
+	"applyInfo": {
+		"applyTime": "2021-02-24 10:28:16",
+		"applyAmount": 50000,
+		"applyTerm": 6,
+		"applicationPeriod": 0,
+		"productCode": "FQ_JK_CKSHD",
+		"productGroup": 1121,
+		"applySource": "api",
+		"financeChannel": 1
+	},
+	"loanInfo": {
+		"loanAmount": 50000,
+		"loanTerm": 6,
+		"cycleInterval": 0,
+		"assetInterestRate": 0.100000,
+		"assetInterestRatePeriod": 1,
+		"userInterestRate": 0.100000,
+		"userInterestRatePeriod": 1,
+		"repayMethod": "AI",
+		"discountRate": 0
+	},
+	"cardInfo": {
+		"accountProp": 1,
+		"bankCode": "CMB",
+		"bankNameSub": "招商银行北京分行",
+		"bankCardNo": "6214888888888888888",
+		"bankCardAccountType": 0,
+		"bankPhone": "13800138001",
+		"corporateAccountName": "公司",
+		"unifiedSocialCreditCode": "1234567890000",
+		"openAccountProvince": "110100",
+		"openAccountCity": "110100",
+		"openAccountBankNameSub": "招商银行北京分行"
+	},
+	"personalInfo": {
+		"cardNum": "653225200008278882",
+		"custName": "李瑜",
+		"phone": "15516298131"
+	},
+	"imageInfo": {
+		"salesContractImage": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=4250058738,780121024&amp;fm=11&amp;gp=0.jpg"
+	},
+	"bindingCardInfo": {
+		"bankCode": "86",
+		"bankNameSub": "招商银行北京分行",
+		"bankCardNo": "6214888888888888888",
+		"bankCardAccountType": 0,
+		"bankPhone": "13800138001"
+	},
+	"entityInfo": {
+		"merchantDiscountRate": 0.120000,
+		"supplierName": "供应商名称",
+		"supplierUnifiedSocialCreditCode": "1823994",
+		"productInfoList": [{
+			"productName": "产品名称",
+			"brandName": "品牌名称",
+			"productModel": "产品型号",
+			"productQuantity": 10,
+			"productUnitPrice": 100
+		}],
+		"deliveryAddressBorough": "110105",
+		"deliveryAddressCity": "110100",
+		"deliveryAddressProvince": "110100",
+		"deliveryDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"consigneeName": "收货人",
+		"consigneePhone": "13800138003",
+		"clinicName": "诊所名",
+		"clinicUnifiedSocialCreditCode": "XX",
+		"legalPersonName": "法人",
+		"legalPersonIdcard": "372301199509074811",
+		"legalPersonPhone": "13800138002"
+	}
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"sourceCode": "jkjr",
 	"channel": "jkjr",
-	"sourceUserId": "1234567890000",
-	"transactionId": "1234567890000",
-	"serviceSn": "1234567890000",
+	"sourceUserId": "54658",
+	"transactionId": "8180668929062786349",
+	"serviceSn": "8033795954",
 	"creditInfo": {
 		"sourceCreditAmt": 300000,
-		"sourceCreditRate": 0.120000,
+		"sourceCreditRate": 0.12,
 		"auditResult": 1
 	},
 	"applyInfo": {
-		"applyTime": "2020-05-06 12:30:30",
+		"applyTime": "2021-03-02 15:46:43",
 		"productGroup": 1121,
 		"applySource": "api",
 		"financeChannel": 1
 	},
 	"personalInfo": {
-		"custName": "张三",
-		"cardNum": "110100199010010001",
-		"phone": "13800138001",
+		"custName": "郭淑兰",
+		"cardNum": "141034197503167732",
+		"phone": "15537896229",
 		"sex": "M",
 		"age": 25,
 		"maritalStatus": 1,
@@ -7082,13 +6960,6 @@
 		"creditRepoForLoanApprovedQueryTimes": 1,
 		"creditRepoForCreditCardApprovedQueryTimes": 1
 	},
-	"bindingCardInfo": {
-		"bankCode": "86",
-		"bankNameSub": "招商银行北京分行",
-		"bankCardNo": "6214888888888888888",
-		"bankCardAccountType": 0,
-		"bankPhone": "13800138001"
-	},
 	"contactInfo": {
 		"spouseName": "李四",
 		"spousePhone": "13800138003",
@@ -7106,7 +6977,7 @@
 		"isChangeForLegalPerson": 1,
 		"clinicName": "诊所名称",
 		"isRequiredApplyLicense": "Y",
-		"unifiedSocialCreditCode": "XXX",
+		"unifiedSocialCreditCode": "556211803707544",
 		"permitRegistrationNumber": "84819923",
 		"hospitalCategory": 1,
 		"isThreeCertificatesInOne": "Y",
@@ -7185,79 +7056,208 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-	"serviceSn": "1234567890000",
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"transactionId": "9892188648115347405",
-	"sourceUserId": "36458",
-	"sourceProjectId": "378457",
-	"applyInfo": {
-		"applyTime": "2021-02-24 10:28:16",
-		"applyAmount": 50000,
-		"applyTerm": 6,
-		"applicationPeriod": 0,
-		"productCode": "FQ_JK_CKSHD",
-		"productGroup": 1121,
-		"applySource": "api",
-		"financeChannel": 1
-	},
-	"loanInfo": {
-		"loanAmount": 50000,
-		"loanTerm": 6,
-		"cycleInterval": 0,
-		"assetInterestRate": 0.100000,
-		"assetInterestRatePeriod": 1,
-		"userInterestRate": 0.100000,
-		"userInterestRatePeriod": 1,
-		"repayMethod": "AI",
-		"discountRate": 0
-	},
-	"cardInfo": {
-		"accountProp": 1,
-		"bankCode": "CMB",
-		"bankNameSub": "招商银行北京分行",
-		"bankCardNo": "6214888888888888888",
-		"bankCardAccountType": 0,
-		"bankPhone": "13800138001",
-		"corporateAccountName": "公司",
-		"unifiedSocialCreditCode": "1234567890000",
-		"openAccountProvince": "110100",
-		"openAccountCity": "110100",
-		"openAccountBankNameSub": "招商银行北京分行"
-	},
-	"personalInfo": {
-		"cardNum": "653225200008278882",
-		"custName": "李瑜",
-		"phone": "15516298131"
-	},
-	"imageInfo": {
-		"salesContractImage": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=4250058738,780121024&amp;fm=11&amp;gp=0.jpg"
-	},
-	"entityInfo": {
-		"merchantDiscountRate": 0.120000,
-		"supplierName": "供应商名称",
-		"supplierUnifiedSocialCreditCode": "1823994",
-		"productInfoList": [{
-			"productName": "产品名称",
-			"brandName": "品牌名称",
-			"productModel": "产品型号",
-			"productQuantity": 10,
-			"productUnitPrice": 100
-		}],
-		"deliveryAddressBorough": "110105",
-		"deliveryAddressCity": "110100",
-		"deliveryAddressProvince": "110100",
-		"deliveryDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"consigneeName": "收货人",
-		"consigneePhone": "13800138003",
-		"clinicName": "诊所名",
-		"clinicUnifiedSocialCreditCode": "XX",
-		"legalPersonName": "法人",
-		"legalPersonIdcard": "372301199509074811",
-		"legalPersonPhone": "13800138002"
-	}
-}</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardNo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardAccountType</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankPhone</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8846,10 +8846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8896,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -9453,11 +9453,11 @@
     </row>
     <row r="49" spans="1:6" ht="20">
       <c r="A49" s="16" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
@@ -9465,11 +9465,11 @@
     </row>
     <row r="50" spans="1:6" ht="20">
       <c r="A50" s="16" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
@@ -9477,11 +9477,11 @@
     </row>
     <row r="51" spans="1:6" ht="20">
       <c r="A51" s="16" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="12"/>
@@ -9489,11 +9489,11 @@
     </row>
     <row r="52" spans="1:6" ht="20">
       <c r="A52" s="16" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
@@ -9501,11 +9501,11 @@
     </row>
     <row r="53" spans="1:6" ht="20">
       <c r="A53" s="16" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="12"/>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="54" spans="1:6" ht="20">
       <c r="A54" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -9525,7 +9525,7 @@
     </row>
     <row r="55" spans="1:6" ht="20">
       <c r="A55" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="7">
@@ -9537,11 +9537,11 @@
     </row>
     <row r="56" spans="1:6" ht="20">
       <c r="A56" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
@@ -9549,11 +9549,11 @@
     </row>
     <row r="57" spans="1:6" ht="20">
       <c r="A57" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="12"/>
@@ -9561,11 +9561,11 @@
     </row>
     <row r="58" spans="1:6" ht="20">
       <c r="A58" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="12"/>
@@ -9573,11 +9573,11 @@
     </row>
     <row r="59" spans="1:6" ht="20">
       <c r="A59" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="12"/>
@@ -9585,11 +9585,11 @@
     </row>
     <row r="60" spans="1:6" ht="20">
       <c r="A60" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="12"/>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="61" spans="1:6" ht="20">
       <c r="A61" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
@@ -9609,7 +9609,7 @@
     </row>
     <row r="62" spans="1:6" ht="20">
       <c r="A62" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="7">
@@ -9621,7 +9621,7 @@
     </row>
     <row r="63" spans="1:6" ht="20">
       <c r="A63" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="7">
@@ -9633,7 +9633,7 @@
     </row>
     <row r="64" spans="1:6" ht="20">
       <c r="A64" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="7">
@@ -9645,7 +9645,7 @@
     </row>
     <row r="65" spans="1:6" ht="20">
       <c r="A65" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="7">
@@ -9657,7 +9657,7 @@
     </row>
     <row r="66" spans="1:6" ht="20">
       <c r="A66" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
@@ -9669,7 +9669,7 @@
     </row>
     <row r="67" spans="1:6" ht="20">
       <c r="A67" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="7">
@@ -9681,7 +9681,7 @@
     </row>
     <row r="68" spans="1:6" ht="20">
       <c r="A68" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="7">
@@ -9693,7 +9693,7 @@
     </row>
     <row r="69" spans="1:6" ht="20">
       <c r="A69" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
@@ -9705,7 +9705,7 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
@@ -9717,7 +9717,7 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
@@ -9729,7 +9729,7 @@
     </row>
     <row r="72" spans="1:6" ht="20">
       <c r="A72" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
@@ -9741,7 +9741,7 @@
     </row>
     <row r="73" spans="1:6" ht="20">
       <c r="A73" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
@@ -9753,7 +9753,7 @@
     </row>
     <row r="74" spans="1:6" ht="20">
       <c r="A74" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
@@ -9765,7 +9765,7 @@
     </row>
     <row r="75" spans="1:6" ht="20">
       <c r="A75" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="7">
@@ -9777,7 +9777,7 @@
     </row>
     <row r="76" spans="1:6" ht="20">
       <c r="A76" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
@@ -9789,7 +9789,7 @@
     </row>
     <row r="77" spans="1:6" ht="20">
       <c r="A77" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="7">
@@ -9801,7 +9801,7 @@
     </row>
     <row r="78" spans="1:6" ht="20">
       <c r="A78" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="7">
@@ -9813,7 +9813,7 @@
     </row>
     <row r="79" spans="1:6" ht="20">
       <c r="A79" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="7">
@@ -9825,11 +9825,11 @@
     </row>
     <row r="80" spans="1:6" ht="20">
       <c r="A80" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="81" spans="1:6" ht="20">
       <c r="A81" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="7">
@@ -9849,7 +9849,7 @@
     </row>
     <row r="82" spans="1:6" ht="20">
       <c r="A82" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="7">
@@ -9861,7 +9861,7 @@
     </row>
     <row r="83" spans="1:6" ht="20">
       <c r="A83" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7">
@@ -9873,7 +9873,7 @@
     </row>
     <row r="84" spans="1:6" ht="20">
       <c r="A84" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7">
@@ -9885,11 +9885,11 @@
     </row>
     <row r="85" spans="1:6" ht="20">
       <c r="A85" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="86" spans="1:6" ht="20">
       <c r="A86" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7">
@@ -9909,11 +9909,11 @@
     </row>
     <row r="87" spans="1:6" ht="20">
       <c r="A87" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="88" spans="1:6" ht="20">
       <c r="A88" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7">
@@ -9933,7 +9933,7 @@
     </row>
     <row r="89" spans="1:6" ht="20">
       <c r="A89" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7">
@@ -9945,7 +9945,7 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7">
@@ -9957,7 +9957,7 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7">
@@ -9969,11 +9969,11 @@
     </row>
     <row r="92" spans="1:6" ht="20">
       <c r="A92" s="16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="93" spans="1:6" ht="20">
       <c r="A93" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -9993,7 +9993,7 @@
     </row>
     <row r="94" spans="1:6" ht="20">
       <c r="A94" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -10005,7 +10005,7 @@
     </row>
     <row r="95" spans="1:6" ht="20">
       <c r="A95" s="16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -10017,7 +10017,7 @@
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
@@ -10029,7 +10029,7 @@
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -10041,7 +10041,7 @@
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -10053,11 +10053,11 @@
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -10077,7 +10077,7 @@
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
@@ -10089,7 +10089,7 @@
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -10101,11 +10101,11 @@
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="12"/>
@@ -10113,11 +10113,11 @@
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="12"/>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="7">
@@ -10137,7 +10137,7 @@
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="7">
@@ -10149,7 +10149,7 @@
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="7">
@@ -10161,7 +10161,7 @@
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="7">
@@ -10173,7 +10173,7 @@
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="7">
@@ -10185,7 +10185,7 @@
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="7">
@@ -10197,7 +10197,7 @@
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="7">
@@ -10209,7 +10209,7 @@
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="7">
@@ -10221,11 +10221,11 @@
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="12"/>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="7">
@@ -10245,7 +10245,7 @@
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="7">
@@ -10257,7 +10257,7 @@
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="7">
@@ -10269,7 +10269,7 @@
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="7">
@@ -10281,7 +10281,7 @@
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="7">
@@ -10293,7 +10293,7 @@
     </row>
     <row r="119" spans="1:6" ht="20">
       <c r="A119" s="16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="7">
@@ -10305,7 +10305,7 @@
     </row>
     <row r="120" spans="1:6" ht="20">
       <c r="A120" s="16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="7">
@@ -10317,7 +10317,7 @@
     </row>
     <row r="121" spans="1:6" ht="20">
       <c r="A121" s="16" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="7">
@@ -10329,7 +10329,7 @@
     </row>
     <row r="122" spans="1:6" ht="20">
       <c r="A122" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="7">
@@ -10340,20 +10340,20 @@
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" ht="20">
-      <c r="A123" s="16" t="s">
-        <v>126</v>
+      <c r="A123" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="12"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" ht="20">
-      <c r="A124" s="16" t="s">
-        <v>127</v>
+      <c r="A124" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="7">
@@ -10364,12 +10364,12 @@
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" ht="20">
-      <c r="A125" s="16" t="s">
-        <v>143</v>
+      <c r="A125" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="12"/>
@@ -10377,11 +10377,11 @@
     </row>
     <row r="126" spans="1:6" ht="20">
       <c r="A126" s="16" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="12"/>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="127" spans="1:6" ht="20">
       <c r="A127" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -10400,20 +10400,20 @@
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" ht="20">
-      <c r="A128" s="6" t="s">
-        <v>19</v>
+      <c r="A128" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="12"/>
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" ht="20">
-      <c r="A129" s="6" t="s">
-        <v>20</v>
+      <c r="A129" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -10424,12 +10424,12 @@
       <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" ht="20">
-      <c r="A130" s="6" t="s">
-        <v>21</v>
+      <c r="A130" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="12"/>
@@ -10437,11 +10437,11 @@
     </row>
     <row r="131" spans="1:6" ht="20">
       <c r="A131" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="12"/>
@@ -10449,11 +10449,11 @@
     </row>
     <row r="132" spans="1:6" ht="20">
       <c r="A132" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="12"/>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="133" spans="1:6" ht="20">
       <c r="A133" s="16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="7">
@@ -10473,7 +10473,7 @@
     </row>
     <row r="134" spans="1:6" ht="20">
       <c r="A134" s="16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="7">
@@ -10483,62 +10483,42 @@
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" ht="20">
-      <c r="A135" s="16" t="s">
-        <v>133</v>
-      </c>
+    <row r="135" spans="1:6" ht="19">
+      <c r="A135" s="6"/>
       <c r="B135" s="19"/>
-      <c r="C135" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C135" s="7"/>
       <c r="D135" s="11"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" ht="20">
-      <c r="A136" s="16" t="s">
-        <v>134</v>
-      </c>
+    <row r="136" spans="1:6" ht="19">
+      <c r="A136" s="6"/>
       <c r="B136" s="19"/>
-      <c r="C136" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="11"/>
       <c r="E136" s="12"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" ht="20">
-      <c r="A137" s="16" t="s">
-        <v>135</v>
-      </c>
+    <row r="137" spans="1:6" ht="19">
+      <c r="A137" s="6"/>
       <c r="B137" s="19"/>
-      <c r="C137" s="7">
-        <v>2000</v>
-      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="11"/>
       <c r="E137" s="12"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" ht="20">
-      <c r="A138" s="16" t="s">
-        <v>136</v>
-      </c>
+    <row r="138" spans="1:6" ht="19">
+      <c r="A138" s="6"/>
       <c r="B138" s="19"/>
-      <c r="C138" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C138" s="7"/>
       <c r="D138" s="11"/>
       <c r="E138" s="12"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" ht="20">
-      <c r="A139" s="16" t="s">
-        <v>137</v>
-      </c>
+    <row r="139" spans="1:6" ht="19">
+      <c r="A139" s="6"/>
       <c r="B139" s="19"/>
-      <c r="C139" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="11"/>
       <c r="E139" s="12"/>
       <c r="F139" s="13"/>
@@ -10656,8 +10636,8 @@
       <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6" ht="19">
-      <c r="A154" s="6"/>
-      <c r="B154" s="19"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7"/>
       <c r="D154" s="11"/>
       <c r="E154" s="12"/>
@@ -10696,8 +10676,8 @@
       <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" ht="19">
-      <c r="A159" s="16"/>
-      <c r="B159" s="20"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="7"/>
       <c r="D159" s="11"/>
       <c r="E159" s="12"/>
@@ -12096,76 +12076,36 @@
       <c r="F333" s="13"/>
     </row>
     <row r="334" spans="1:6" ht="19">
-      <c r="A334" s="6"/>
-      <c r="B334" s="19"/>
-      <c r="C334" s="7"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="21"/>
+      <c r="C334" s="15"/>
       <c r="D334" s="11"/>
       <c r="E334" s="12"/>
       <c r="F334" s="13"/>
     </row>
     <row r="335" spans="1:6" ht="19">
-      <c r="A335" s="6"/>
-      <c r="B335" s="19"/>
-      <c r="C335" s="7"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="21"/>
+      <c r="C335" s="15"/>
       <c r="D335" s="11"/>
       <c r="E335" s="12"/>
       <c r="F335" s="13"/>
     </row>
     <row r="336" spans="1:6" ht="19">
-      <c r="A336" s="6"/>
-      <c r="B336" s="19"/>
-      <c r="C336" s="7"/>
+      <c r="A336" s="14"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="15"/>
       <c r="D336" s="11"/>
       <c r="E336" s="12"/>
       <c r="F336" s="13"/>
     </row>
     <row r="337" spans="1:6" ht="19">
-      <c r="A337" s="6"/>
-      <c r="B337" s="19"/>
-      <c r="C337" s="7"/>
+      <c r="A337" s="14"/>
+      <c r="B337" s="21"/>
+      <c r="C337" s="15"/>
       <c r="D337" s="11"/>
       <c r="E337" s="12"/>
       <c r="F337" s="13"/>
-    </row>
-    <row r="338" spans="1:6" ht="19">
-      <c r="A338" s="6"/>
-      <c r="B338" s="19"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="11"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="13"/>
-    </row>
-    <row r="339" spans="1:6" ht="19">
-      <c r="A339" s="14"/>
-      <c r="B339" s="21"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="11"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="13"/>
-    </row>
-    <row r="340" spans="1:6" ht="19">
-      <c r="A340" s="14"/>
-      <c r="B340" s="21"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="11"/>
-      <c r="E340" s="12"/>
-      <c r="F340" s="13"/>
-    </row>
-    <row r="341" spans="1:6" ht="19">
-      <c r="A341" s="14"/>
-      <c r="B341" s="21"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="11"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="13"/>
-    </row>
-    <row r="342" spans="1:6" ht="19">
-      <c r="A342" s="14"/>
-      <c r="B342" s="21"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="11"/>
-      <c r="E342" s="12"/>
-      <c r="F342" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -12175,10 +12115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12212,25 +12152,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -12239,7 +12179,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -12248,7 +12188,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -12257,7 +12197,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -12266,7 +12206,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -12275,7 +12215,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -12284,7 +12224,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -12293,7 +12233,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -12302,7 +12242,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="3">
@@ -12311,7 +12251,7 @@
     </row>
     <row r="12" spans="1:6" ht="20">
       <c r="A12" s="22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -12320,7 +12260,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -12329,7 +12269,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -12338,7 +12278,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -12347,7 +12287,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -12356,7 +12296,7 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="3">
@@ -12365,7 +12305,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -12374,7 +12314,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -12383,7 +12323,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -12392,7 +12332,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -12401,7 +12341,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -12410,7 +12350,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -12419,7 +12359,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -12428,7 +12368,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -12437,7 +12377,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -12446,7 +12386,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -12455,7 +12395,7 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -12464,7 +12404,7 @@
     </row>
     <row r="29" spans="1:3" ht="20">
       <c r="A29" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -12473,7 +12413,7 @@
     </row>
     <row r="30" spans="1:3" ht="20">
       <c r="A30" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -12482,7 +12422,7 @@
     </row>
     <row r="31" spans="1:3" ht="20">
       <c r="A31" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -12491,7 +12431,7 @@
     </row>
     <row r="32" spans="1:3" ht="20">
       <c r="A32" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -12500,7 +12440,7 @@
     </row>
     <row r="33" spans="1:3" ht="20">
       <c r="A33" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -12509,7 +12449,7 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="3">
@@ -12518,7 +12458,7 @@
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="3">
@@ -12527,7 +12467,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -12536,7 +12476,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -12545,7 +12485,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -12554,7 +12494,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -12563,7 +12503,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -12572,7 +12512,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -12581,7 +12521,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -12590,7 +12530,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -12599,7 +12539,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -12608,7 +12548,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -12617,7 +12557,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -12626,7 +12566,7 @@
     </row>
     <row r="47" spans="1:3" ht="20">
       <c r="A47" s="22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -12635,7 +12575,7 @@
     </row>
     <row r="48" spans="1:3" ht="20">
       <c r="A48" s="22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -12644,10 +12584,55 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20">
+      <c r="A50" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20">
+      <c r="A51" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20">
+      <c r="A52" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20">
+      <c r="A53" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20">
+      <c r="A54" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="7">
         <v>4000</v>
       </c>
     </row>

--- a/data/jk_ckshd_required_test.xlsx
+++ b/data/jk_ckshd_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226ACD45-B170-9D46-8F38-EB70664F0BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9EBD4F-8FB5-A743-BBE7-CBD2A77D0109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="208">
   <si>
     <t>casename</t>
   </si>
@@ -1981,7 +1981,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isChangeForLegalPerson</t>
+      <t>entityInfo.clinicName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2022,7 +2022,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.clinicName</t>
+      <t>entityInfo.isRequiredApplyLicense</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2063,7 +2063,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isRequiredApplyLicense</t>
+      <t>entityInfo.unifiedSocialCreditCode</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2104,7 +2104,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.unifiedSocialCreditCode</t>
+      <t>entityInfo.permitRegistrationNumber</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2145,7 +2145,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.permitRegistrationNumber</t>
+      <t>entityInfo.hospitalCategory</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2186,7 +2186,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.hospitalCategory</t>
+      <t>entityInfo.isThreeCertificatesInOne</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2227,7 +2227,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isThreeCertificatesInOne</t>
+      <t>entityInfo.corpType</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2268,7 +2268,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.corpType</t>
+      <t>entityInfo.registeredAssets</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2309,7 +2309,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.registeredAssets</t>
+      <t>entityInfo.isAddressConsistent</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2350,7 +2350,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isAddressConsistent</t>
+      <t>entityInfo.registerDetailAddress</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2391,7 +2391,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.registerAddressProvince</t>
+      <t>entityInfo.cityGrading</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2432,7 +2432,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.registerAddressCity</t>
+      <t>entityInfo.businessLicenseValidDate</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2473,7 +2473,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.registerAddressBorough</t>
+      <t>entityInfo.openingDate</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2514,7 +2514,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.registerDetailAddress</t>
+      <t>entityInfo.establishYears</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2555,7 +2555,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.cityGrading</t>
+      <t>entityInfo.oldLegalPersonName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2577,26 +2577,26 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.businessLicenseValidDate</t>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.chainInstitutionNumber</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2637,7 +2637,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.openingDate</t>
+      <t>entityInfo.annualRunningWater</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2678,7 +2678,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.establishYears</t>
+      <t>entityInfo.operateSiteOwnership</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2719,7 +2719,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.oldLegalPersonName</t>
+      <t>entityInfo.legalPersonName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2760,7 +2760,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isChainInstitution</t>
+      <t>entityInfo.legalPersonIdcard</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2782,6 +2782,47 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonPhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>-非</t>
     </r>
     <r>
@@ -2801,7 +2842,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.chainInstitutionNumber</t>
+      <t>entityInfo.decorateGrade</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2842,7 +2883,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.brandName</t>
+      <t>entityInfo.locationGrade</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2883,7 +2924,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.annualRunningWater</t>
+      <t>entityInfo.legalPersonPhoneRealName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2924,7 +2965,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.operateSiteOwnership</t>
+      <t>entityInfo.isSamePersonForProprietorAndLegal</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2965,7 +3006,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.legalPersonName</t>
+      <t>entityInfo.proprietorRealName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3006,7 +3047,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.legalPersonIdcard</t>
+      <t>entityInfo.proprietorRealIdCardNo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3047,7 +3088,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.legalPersonPhone</t>
+      <t>entityInfo.proprietorRealPhone</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3069,6 +3110,170 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsPhoneRealName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isSamePersonForLegalAndContact</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isSamePersonForProprietorContact</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.contactName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>-非</t>
     </r>
     <r>
@@ -3088,7 +3293,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.decorateGrade</t>
+      <t>entityInfo.contactIdCardNo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3129,7 +3334,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.locationGrade</t>
+      <t>entityInfo.contactPhone</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3151,26 +3356,26 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.authorisedRepresentative</t>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isFieldTrip</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3211,7 +3416,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.legalPersonPhoneRealName</t>
+      <t>entityInfo.accessWay</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3252,7 +3457,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isSamePersonForProprietorAndLegal</t>
+      <t>entityInfo.supplierName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3293,7 +3498,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.proprietorRealName</t>
+      <t>entityInfo.floorSpace</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3334,7 +3539,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.proprietorRealIdCardNo</t>
+      <t>entityInfo.staffOnActiveDutyNum</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3356,26 +3561,26 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorRealPhone</t>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.havePromotionActivity</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3416,7 +3621,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.proprietorIsPhoneRealName</t>
+      <t>entityInfo.clinicMaxOverdueDays</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3457,7 +3662,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isSamePersonForLegalAndContact</t>
+      <t>entityInfo.clinicOverdueTimesMoreThan5</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3498,7 +3703,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isSamePersonForProprietorContact</t>
+      <t>entityInfo.clinicFirstLoanTime</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3539,7 +3744,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.contactName</t>
+      <t>entityInfo.clinicTotalLoanCount</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3561,6 +3766,580 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicTotalLoanAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicInLoanAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicCurrentOverdueAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicCurrentOverdueCount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicCurrentOverdueDays</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicHistoryOverdueDays</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.clinicTotalOverdueTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.backPhotoOfIDCard</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.imageForCreditRepo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.medicalPracticeCertificate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.shareholderCertificate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.medicalInstitutionLicense</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.businessLicense</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.enterpriseEnvironment</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>-非</t>
     </r>
     <r>
@@ -3580,7 +4359,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.contactIdCardNo</t>
+      <t>imageInfo.enterpriseDoorLicense</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3621,7 +4400,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.contactPhone</t>
+      <t>imageInfo.enterpriseFacadePhotos</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3662,7 +4441,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.legalPersonIsDoctor</t>
+      <t>imageInfo.consultationRoomPhotos</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3703,20 +4482,680 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.proprietorIsDoctor</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
+      <t>entityInfo.clinicTotalSettleCount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/jkjr/shd/project/apply</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTime</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTerm</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applicationPeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productGroup</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applySource</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.financeChannel</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanTerm</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.cycleInterval</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.assetInterestRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.assetInterestRatePeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.userInterestRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.userInterestRatePeriod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.repayMethod</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
     </r>
     <r>
       <rPr>
@@ -3744,184 +5183,266 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.isFieldTrip</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.accessWay</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.supplierName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.floorSpace</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.staffOnActiveDutyNum</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
+      <t>loanInfo.discountAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.discountRate</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.accountProp</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCardNo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCardAccountType</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
     </r>
     <r>
       <rPr>
@@ -3949,914 +5470,8 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>entityInfo.havePromotionActivity</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicMaxOverdueDays</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicOverdueTimesMoreThan5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicFirstLoanTime</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicTotalLoanCount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicTotalLoanAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicInLoanAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicCurrentOverdueAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicCurrentOverdueCount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicCurrentOverdueDays</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicHistoryOverdueDays</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicTotalOverdueTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.backPhotoOfIDCard</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.imageForCreditRepo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.medicalPracticeCertificate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.shareholderCertificate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.medicalInstitutionLicense</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.businessLicense</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.enterpriseEnvironment</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.enterpriseDoorLicense</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.enterpriseFacadePhotos</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.consultationRoomPhotos</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.clinicTotalSettleCount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/jkjr/shd/project/apply</t>
+      <t>cardInfo.bankPhone</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4896,7 +5511,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.applyTime</t>
+      <t>cardInfo.corporateAccountName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4937,7 +5552,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.applyAmount</t>
+      <t>cardInfo.unifiedSocialCreditCode</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4978,7 +5593,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.applyTerm</t>
+      <t>cardInfo.openAccountProvince</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5019,7 +5634,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.applicationPeriod</t>
+      <t>cardInfo.openAccountCity</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5060,7 +5675,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.productCode</t>
+      <t>cardInfo.openAccountBankNameSub</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5101,7 +5716,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.productGroup</t>
+      <t>personalInfo.cardNum</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5142,7 +5757,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.applySource</t>
+      <t>personalInfo.custName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5183,1032 +5798,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>applyInfo.financeChannel</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanTerm</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.cycleInterval</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.assetInterestRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.assetInterestRatePeriod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.userInterestRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.userInterestRatePeriod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.repayMethod</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountRate</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.accountProp</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCardNo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCardAccountType</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankPhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.corporateAccountName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.unifiedSocialCreditCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountProvince</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountCity</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.openAccountBankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.cardNum</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.custName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>personalInfo.phone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.salesContractImage</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7257,6 +6847,949 @@
         <family val="1"/>
       </rPr>
       <t>bindingCardInfo.bankPhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.salesContractImage</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChangeForLegalPerson</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressProvince</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressCity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressBorough</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChainInstitution</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.brandName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.authorisedRepresentative</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonIsDoctor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsDoctor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.imageInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>creditInfo.creditInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.personalInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contactInfo.contactInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.entityInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bindingCardInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.cardInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.personalInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.imageInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.entityInfo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -8848,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8896,7 +9429,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -9585,11 +10118,11 @@
     </row>
     <row r="60" spans="1:6" ht="20">
       <c r="A60" s="16" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="12"/>
@@ -9597,7 +10130,7 @@
     </row>
     <row r="61" spans="1:6" ht="20">
       <c r="A61" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
@@ -9609,7 +10142,7 @@
     </row>
     <row r="62" spans="1:6" ht="20">
       <c r="A62" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="7">
@@ -9621,7 +10154,7 @@
     </row>
     <row r="63" spans="1:6" ht="20">
       <c r="A63" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="7">
@@ -9633,7 +10166,7 @@
     </row>
     <row r="64" spans="1:6" ht="20">
       <c r="A64" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="7">
@@ -9645,7 +10178,7 @@
     </row>
     <row r="65" spans="1:6" ht="20">
       <c r="A65" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="7">
@@ -9657,7 +10190,7 @@
     </row>
     <row r="66" spans="1:6" ht="20">
       <c r="A66" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
@@ -9669,7 +10202,7 @@
     </row>
     <row r="67" spans="1:6" ht="20">
       <c r="A67" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="7">
@@ -9681,7 +10214,7 @@
     </row>
     <row r="68" spans="1:6" ht="20">
       <c r="A68" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="7">
@@ -9693,7 +10226,7 @@
     </row>
     <row r="69" spans="1:6" ht="20">
       <c r="A69" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
@@ -9705,11 +10238,11 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="16" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
@@ -9717,11 +10250,11 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="16" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
@@ -9729,11 +10262,11 @@
     </row>
     <row r="72" spans="1:6" ht="20">
       <c r="A72" s="16" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
@@ -9741,7 +10274,7 @@
     </row>
     <row r="73" spans="1:6" ht="20">
       <c r="A73" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
@@ -9753,7 +10286,7 @@
     </row>
     <row r="74" spans="1:6" ht="20">
       <c r="A74" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
@@ -9765,7 +10298,7 @@
     </row>
     <row r="75" spans="1:6" ht="20">
       <c r="A75" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="7">
@@ -9777,7 +10310,7 @@
     </row>
     <row r="76" spans="1:6" ht="20">
       <c r="A76" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
@@ -9789,7 +10322,7 @@
     </row>
     <row r="77" spans="1:6" ht="20">
       <c r="A77" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="7">
@@ -9801,7 +10334,7 @@
     </row>
     <row r="78" spans="1:6" ht="20">
       <c r="A78" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="7">
@@ -9813,11 +10346,11 @@
     </row>
     <row r="79" spans="1:6" ht="20">
       <c r="A79" s="16" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
@@ -9825,7 +10358,7 @@
     </row>
     <row r="80" spans="1:6" ht="20">
       <c r="A80" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="7">
@@ -9837,11 +10370,11 @@
     </row>
     <row r="81" spans="1:6" ht="20">
       <c r="A81" s="16" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
@@ -9849,7 +10382,7 @@
     </row>
     <row r="82" spans="1:6" ht="20">
       <c r="A82" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="7">
@@ -9861,7 +10394,7 @@
     </row>
     <row r="83" spans="1:6" ht="20">
       <c r="A83" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7">
@@ -9873,7 +10406,7 @@
     </row>
     <row r="84" spans="1:6" ht="20">
       <c r="A84" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7">
@@ -9885,7 +10418,7 @@
     </row>
     <row r="85" spans="1:6" ht="20">
       <c r="A85" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7">
@@ -9897,7 +10430,7 @@
     </row>
     <row r="86" spans="1:6" ht="20">
       <c r="A86" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7">
@@ -9909,7 +10442,7 @@
     </row>
     <row r="87" spans="1:6" ht="20">
       <c r="A87" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7">
@@ -9921,7 +10454,7 @@
     </row>
     <row r="88" spans="1:6" ht="20">
       <c r="A88" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7">
@@ -9933,11 +10466,11 @@
     </row>
     <row r="89" spans="1:6" ht="20">
       <c r="A89" s="16" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
@@ -9945,7 +10478,7 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7">
@@ -9957,7 +10490,7 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7">
@@ -9969,7 +10502,7 @@
     </row>
     <row r="92" spans="1:6" ht="20">
       <c r="A92" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -9981,7 +10514,7 @@
     </row>
     <row r="93" spans="1:6" ht="20">
       <c r="A93" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -9993,7 +10526,7 @@
     </row>
     <row r="94" spans="1:6" ht="20">
       <c r="A94" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -10005,7 +10538,7 @@
     </row>
     <row r="95" spans="1:6" ht="20">
       <c r="A95" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -10017,7 +10550,7 @@
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
@@ -10029,7 +10562,7 @@
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -10041,7 +10574,7 @@
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -10053,7 +10586,7 @@
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
@@ -10065,7 +10598,7 @@
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -10077,11 +10610,11 @@
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="16" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
@@ -10089,11 +10622,11 @@
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="16" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="12"/>
@@ -10101,7 +10634,7 @@
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
@@ -10113,7 +10646,7 @@
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">
@@ -10125,7 +10658,7 @@
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="7">
@@ -10137,7 +10670,7 @@
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="7">
@@ -10149,7 +10682,7 @@
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="7">
@@ -10161,7 +10694,7 @@
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="7">
@@ -10173,7 +10706,7 @@
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="7">
@@ -10185,7 +10718,7 @@
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="7">
@@ -10197,7 +10730,7 @@
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="7">
@@ -10209,7 +10742,7 @@
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="7">
@@ -10221,7 +10754,7 @@
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="7">
@@ -10233,7 +10766,7 @@
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="7">
@@ -10245,7 +10778,7 @@
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="7">
@@ -10257,7 +10790,7 @@
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="7">
@@ -10269,7 +10802,7 @@
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="7">
@@ -10281,7 +10814,7 @@
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="7">
@@ -10293,7 +10826,7 @@
     </row>
     <row r="119" spans="1:6" ht="20">
       <c r="A119" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="7">
@@ -10305,7 +10838,7 @@
     </row>
     <row r="120" spans="1:6" ht="20">
       <c r="A120" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="7">
@@ -10329,7 +10862,7 @@
     </row>
     <row r="122" spans="1:6" ht="20">
       <c r="A122" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="7">
@@ -10377,7 +10910,7 @@
     </row>
     <row r="126" spans="1:6" ht="20">
       <c r="A126" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
@@ -10389,7 +10922,7 @@
     </row>
     <row r="127" spans="1:6" ht="20">
       <c r="A127" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -10401,7 +10934,7 @@
     </row>
     <row r="128" spans="1:6" ht="20">
       <c r="A128" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
@@ -10413,7 +10946,7 @@
     </row>
     <row r="129" spans="1:6" ht="20">
       <c r="A129" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -10425,7 +10958,7 @@
     </row>
     <row r="130" spans="1:6" ht="20">
       <c r="A130" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
@@ -10437,7 +10970,7 @@
     </row>
     <row r="131" spans="1:6" ht="20">
       <c r="A131" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="7">
@@ -10449,7 +10982,7 @@
     </row>
     <row r="132" spans="1:6" ht="20">
       <c r="A132" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="7">
@@ -10461,7 +10994,7 @@
     </row>
     <row r="133" spans="1:6" ht="20">
       <c r="A133" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="7">
@@ -10473,7 +11006,7 @@
     </row>
     <row r="134" spans="1:6" ht="20">
       <c r="A134" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="7">
@@ -10483,50 +11016,74 @@
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" ht="19">
-      <c r="A135" s="6"/>
+    <row r="135" spans="1:6" ht="20">
+      <c r="A135" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="B135" s="19"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="7">
+        <v>4000</v>
+      </c>
       <c r="D135" s="11"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" ht="19">
-      <c r="A136" s="6"/>
+    <row r="136" spans="1:6" ht="20">
+      <c r="A136" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="B136" s="19"/>
-      <c r="C136" s="7"/>
+      <c r="C136" s="7">
+        <v>4000</v>
+      </c>
       <c r="D136" s="11"/>
       <c r="E136" s="12"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" ht="19">
-      <c r="A137" s="6"/>
+    <row r="137" spans="1:6" ht="20">
+      <c r="A137" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="B137" s="19"/>
-      <c r="C137" s="7"/>
+      <c r="C137" s="7">
+        <v>4000</v>
+      </c>
       <c r="D137" s="11"/>
       <c r="E137" s="12"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" ht="19">
-      <c r="A138" s="6"/>
+    <row r="138" spans="1:6" ht="20">
+      <c r="A138" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="B138" s="19"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="7">
+        <v>4000</v>
+      </c>
       <c r="D138" s="11"/>
       <c r="E138" s="12"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" ht="19">
-      <c r="A139" s="6"/>
+    <row r="139" spans="1:6" ht="20">
+      <c r="A139" s="16" t="s">
+        <v>199</v>
+      </c>
       <c r="B139" s="19"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="7">
+        <v>2000</v>
+      </c>
       <c r="D139" s="11"/>
       <c r="E139" s="12"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" ht="19">
-      <c r="A140" s="6"/>
+    <row r="140" spans="1:6" ht="20">
+      <c r="A140" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="B140" s="19"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7">
+        <v>4000</v>
+      </c>
       <c r="D140" s="11"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
@@ -12115,10 +12672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12152,25 +12709,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -12179,7 +12736,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -12188,7 +12745,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -12197,7 +12754,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -12206,7 +12763,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -12215,7 +12772,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -12224,7 +12781,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -12233,7 +12790,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -12242,7 +12799,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="3">
@@ -12251,7 +12808,7 @@
     </row>
     <row r="12" spans="1:6" ht="20">
       <c r="A12" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -12260,7 +12817,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -12269,7 +12826,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -12278,7 +12835,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -12287,7 +12844,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -12296,7 +12853,7 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="3">
@@ -12305,7 +12862,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -12314,7 +12871,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -12323,7 +12880,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -12332,7 +12889,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -12341,7 +12898,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -12350,7 +12907,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -12359,7 +12916,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -12368,7 +12925,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -12377,7 +12934,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -12386,7 +12943,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -12395,7 +12952,7 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -12404,7 +12961,7 @@
     </row>
     <row r="29" spans="1:3" ht="20">
       <c r="A29" s="22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -12413,7 +12970,7 @@
     </row>
     <row r="30" spans="1:3" ht="20">
       <c r="A30" s="22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -12422,7 +12979,7 @@
     </row>
     <row r="31" spans="1:3" ht="20">
       <c r="A31" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -12431,7 +12988,7 @@
     </row>
     <row r="32" spans="1:3" ht="20">
       <c r="A32" s="22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -12440,7 +12997,7 @@
     </row>
     <row r="33" spans="1:3" ht="20">
       <c r="A33" s="22" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -12449,16 +13006,16 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="3">
@@ -12467,7 +13024,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -12476,7 +13033,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -12485,7 +13042,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -12494,7 +13051,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -12503,7 +13060,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -12512,7 +13069,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -12521,7 +13078,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -12530,7 +13087,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -12539,7 +13096,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -12548,7 +13105,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -12557,7 +13114,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -12566,7 +13123,7 @@
     </row>
     <row r="47" spans="1:3" ht="20">
       <c r="A47" s="22" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -12575,7 +13132,7 @@
     </row>
     <row r="48" spans="1:3" ht="20">
       <c r="A48" s="22" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -12584,7 +13141,7 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="23" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25">
@@ -12593,7 +13150,7 @@
     </row>
     <row r="50" spans="1:3" ht="20">
       <c r="A50" s="16" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -12602,7 +13159,7 @@
     </row>
     <row r="51" spans="1:3" ht="20">
       <c r="A51" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -12611,7 +13168,7 @@
     </row>
     <row r="52" spans="1:3" ht="20">
       <c r="A52" s="16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -12620,7 +13177,7 @@
     </row>
     <row r="53" spans="1:3" ht="20">
       <c r="A53" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -12629,10 +13186,73 @@
     </row>
     <row r="54" spans="1:3" ht="20">
       <c r="A54" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20">
+      <c r="A55" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20">
+      <c r="A56" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20">
+      <c r="A57" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20">
+      <c r="A58" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20">
+      <c r="A59" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20">
+      <c r="A61" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="7">
         <v>4000</v>
       </c>
     </row>

--- a/data/jk_ckshd_required_test.xlsx
+++ b/data/jk_ckshd_required_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9EBD4F-8FB5-A743-BBE7-CBD2A77D0109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCAEAE2-A0FF-4F45-9AAC-5B3ECF8B6E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_none" sheetId="2" r:id="rId1"/>
@@ -9381,7 +9381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
@@ -12674,8 +12674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20">

--- a/data/jk_ckshd_required_test.xlsx
+++ b/data/jk_ckshd_required_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCAEAE2-A0FF-4F45-9AAC-5B3ECF8B6E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ADCDA8-B86E-0E41-81D4-49E9650000C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7748,48 +7748,48 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>entityInfo.entityInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>imageInfo.imageInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.entityInfo</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -12674,7 +12674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="60" spans="1:3" ht="20">
       <c r="A60" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
@@ -13249,7 +13249,7 @@
     </row>
     <row r="61" spans="1:3" ht="20">
       <c r="A61" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
